--- a/biology/Médecine/Académie_royale_de_chirurgie/Académie_royale_de_chirurgie.xlsx
+++ b/biology/Médecine/Académie_royale_de_chirurgie/Académie_royale_de_chirurgie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_royale_de_chirurgie</t>
+          <t>Académie_royale_de_chirurgie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'académie royale de Chirurgie est une ancienne institution française fondée à Paris, où, sous l'Ancien Régime, ont été formés des chirurgiens. Fondée en 1731 pour remplacer la confrérie de Saint-Côme et de Saint-Damien, elle est supprimée en 1793. Elle ne doit pas être confondue avec l'académie nationale de chirurgie, fondée en 1843.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_royale_de_chirurgie</t>
+          <t>Académie_royale_de_chirurgie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Origines et localisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Instituée le 18 décembre 1731, l'académie prend d'abord place dans l'ancien l'amphithéâtre d'anatomie érigé entre 1691 et 1694 par l'architecte Joubert et le sculpteur François Jacquin, pour la confrérie de Saint-Côme et de Saint-Damien dans la rue des Cordeliers et qui subsiste encore (au no 5 de l'actuelle rue de l'École-de-Médecine). Cet édifice était le premier bâtiment scolaire médical en France à avoir été conçu avec selon un modèle architectural propre à sa fonction, inaugurant le genre des écoles de médecine qui se développera aux XVIIIe et XIXe siècles[1].
-De nouveaux bâtiments sont construits sur ordre de Louis XV entre 1769 et 1774[2] sur le site de l'ancien collège de Bourgogne, un peu plus bas dans la même rue (actuel no 12)[3]. L'architecte Jacques Gondouin, influencé par l'Antiquité grecque, construit le corps central avec la façade principale néo-classique, rue de l'École-de-Médecine, la cour d'honneur intérieure, le grand amphithéâtre et la salle du Conseil[2]. Une devise latine, consilio manuque (« par le moyen de l'intelligence et de la main ») surmontait le blason de l'établissement. Elle est transférée en 1776 dans ces nouveaux bâtiments.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Instituée le 18 décembre 1731, l'académie prend d'abord place dans l'ancien l'amphithéâtre d'anatomie érigé entre 1691 et 1694 par l'architecte Joubert et le sculpteur François Jacquin, pour la confrérie de Saint-Côme et de Saint-Damien dans la rue des Cordeliers et qui subsiste encore (au no 5 de l'actuelle rue de l'École-de-Médecine). Cet édifice était le premier bâtiment scolaire médical en France à avoir été conçu avec selon un modèle architectural propre à sa fonction, inaugurant le genre des écoles de médecine qui se développera aux XVIIIe et XIXe siècles.
+De nouveaux bâtiments sont construits sur ordre de Louis XV entre 1769 et 1774 sur le site de l'ancien collège de Bourgogne, un peu plus bas dans la même rue (actuel no 12). L'architecte Jacques Gondouin, influencé par l'Antiquité grecque, construit le corps central avec la façade principale néo-classique, rue de l'École-de-Médecine, la cour d'honneur intérieure, le grand amphithéâtre et la salle du Conseil. Une devise latine, consilio manuque (« par le moyen de l'intelligence et de la main ») surmontait le blason de l'établissement. Elle est transférée en 1776 dans ces nouveaux bâtiments.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_royale_de_chirurgie</t>
+          <t>Académie_royale_de_chirurgie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Bilan</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fut ainsi le lieu de bon nombre de progrès opératoires :
 évacuation de l'hématome extradural Incision de l'abcès cérébral par Jean-Louis Petit ;
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_royale_de_chirurgie</t>
+          <t>Académie_royale_de_chirurgie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Suppression</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle sera supprimée tout comme la faculté de médecine de Paris par la Convention le 8 août 1793.
 La fondation ultérieure d'une « école de médecine » en 1794 puis la renaissance en 1806 de la faculté de médecine au sein de l'Université incluront les chirurgiens de l'Académie Royale de Chirurgie et leurs précieux apports, transformant totalement l'abord du concept de « clinique » et donnant à l'aube du XIXe l'apparence d'une nouvelle pensée médicale. Elle est remplacée seulement en 1843 par la Société de chirurgie de Paris.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_royale_de_chirurgie</t>
+          <t>Académie_royale_de_chirurgie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,12 +632,52 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Présidents-nés, Premiers chirurgiens du Roi
-1731-1736 : Georges Mareschal
+          <t>Présidents-nés, Premiers chirurgiens du Roi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1731-1736 : Georges Mareschal
 1736-1747 : François Gigot de Lapeyronie
 1747-1783 : Germain Pichault de La Martinière
-1783-1793 : Andouillé
-Directeurs
+1783-1793 : Andouillé</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Académie_royale_de_chirurgie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acad%C3%A9mie_royale_de_chirurgie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dirigeants[4]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Directeurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1731-1738 : Jean-Louis Petit
 1739-1741 : Sauveur-François Morand
 1742-1744 : Malaval
@@ -641,8 +699,43 @@
 1787-1788 : Brasdor
 1789-1790 : Pipelet, fils
 1791-1793 : Sabatier
-Secrétaires perpétuels
-1731-1738 : Morand
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Académie_royale_de_chirurgie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acad%C3%A9mie_royale_de_chirurgie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dirigeants[4]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Secrétaires perpétuels</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1731-1738 : Morand
 1739-1740 : J.-L. Petit
 1740-1751 : Quesnay
 1751-1764 : Morand
